--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95160.6541408401</v>
+        <v>17351954.65691484</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95160.6541408401</v>
+        <v>17351954.65691484</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51927.21921927672</v>
+        <v>6609651.452673977</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51927.21921927672</v>
+        <v>6609651.452673977</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494571981.76536</v>
+        <v>54363308.54014824</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12050.85965345028</v>
+        <v>1233589.709361311</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23219.7081630621</v>
+        <v>2331919.171059328</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34388.55667267379</v>
+        <v>3430248.632757409</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46130.38981576196</v>
+        <v>4425680.846618954</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57389.17894924086</v>
+        <v>5535286.52954636</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68522.7701920329</v>
+        <v>6643169.168381833</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79611.45232935545</v>
+        <v>7788526.418093637</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90711.00370130058</v>
+        <v>8929591.090029964</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102652.7151069363</v>
+        <v>9906296.941910107</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>113816.2704184587</v>
+        <v>11043285.20028369</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124732.3276387268</v>
+        <v>12202616.44890986</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135610.2732773372</v>
+        <v>13357774.82160008</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>146488.2189158868</v>
+        <v>14512933.19429046</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>158909.3982020772</v>
+        <v>15394565.80209556</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>173901.9245933448</v>
+        <v>15909348.67051411</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>343</v>
@@ -27055,10 +27055,10 @@
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>267</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>59</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
